--- a/sample_import_files/carts.xlsx
+++ b/sample_import_files/carts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>code</t>
   </si>
@@ -37,9 +37,6 @@
     <t>CART04</t>
   </si>
   <si>
-    <t>CART05</t>
-  </si>
-  <si>
     <t>Panier 1</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>Panier 4</t>
   </si>
   <si>
-    <t>Panier 5</t>
-  </si>
-  <si>
     <t>Description du panier 1</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
   </si>
   <si>
     <t>Description du panier 4</t>
-  </si>
-  <si>
-    <t>Description du panier 5</t>
   </si>
 </sst>
 </file>
@@ -425,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,10 +438,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,10 +449,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,10 +460,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,21 +471,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
